--- a/data/financial_statements/soci/HPE.xlsx
+++ b/data/financial_statements/soci/HPE.xlsx
@@ -14,9 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,129 +592,129 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41578</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>7871000000</v>
+        <v>7719000000</v>
       </c>
       <c r="C2">
-        <v>6951000000</v>
+        <v>6837000000</v>
       </c>
       <c r="D2">
-        <v>6713000000</v>
+        <v>6656000000</v>
       </c>
       <c r="E2">
-        <v>6961000000</v>
+        <v>6896000000</v>
       </c>
       <c r="F2">
-        <v>7354000000</v>
+        <v>7322000000</v>
       </c>
       <c r="G2">
         <v>6897000000</v>
@@ -706,23 +802,23 @@
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>0.0703</v>
+        <v>0.0542</v>
       </c>
       <c r="C3">
-        <v>0.0078</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="D3">
-        <v>0.0019</v>
+        <v>-0.0066</v>
       </c>
       <c r="E3">
-        <v>0.0187</v>
+        <v>0.0092</v>
       </c>
       <c r="F3">
-        <v>0.0203</v>
+        <v>0.0158</v>
       </c>
       <c r="G3">
         <v>0.0119</v>
@@ -810,23 +906,23 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>5278000000</v>
+        <v>5351000000</v>
       </c>
       <c r="C4">
-        <v>4555000000</v>
+        <v>4628000000</v>
       </c>
       <c r="D4">
-        <v>4540000000</v>
+        <v>4508000000</v>
       </c>
       <c r="E4">
-        <v>4617000000</v>
+        <v>4690000000</v>
       </c>
       <c r="F4">
-        <v>4935000000</v>
+        <v>5013000000</v>
       </c>
       <c r="G4">
         <v>4515000000</v>
@@ -914,23 +1010,23 @@
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>2593000000</v>
+        <v>2368000000</v>
       </c>
       <c r="C5">
-        <v>2396000000</v>
+        <v>2209000000</v>
       </c>
       <c r="D5">
-        <v>2173000000</v>
+        <v>2148000000</v>
       </c>
       <c r="E5">
-        <v>2344000000</v>
+        <v>2206000000</v>
       </c>
       <c r="F5">
-        <v>2419000000</v>
+        <v>2309000000</v>
       </c>
       <c r="G5">
         <v>2382000000</v>
@@ -1018,8 +1114,8 @@
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
         <v>515000000</v>
@@ -1122,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1262000000</v>
@@ -1223,8 +1319,8 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
         <v>-339000000</v>
@@ -1327,8 +1423,8 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B9">
         <v>382000000</v>
@@ -1362,8 +1458,8 @@
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
         <v>109000000</v>
@@ -1463,23 +1559,23 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>-18000000</v>
+        <v>1261000000</v>
       </c>
       <c r="C11">
-        <v>-2000000</v>
+        <v>272000000</v>
       </c>
       <c r="D11">
-        <v>69000000</v>
+        <v>392000000</v>
       </c>
       <c r="E11">
-        <v>45000000</v>
+        <v>387000000</v>
       </c>
       <c r="F11">
-        <v>2338000000</v>
+        <v>-2010000000</v>
       </c>
       <c r="G11">
         <v>124000000</v>
@@ -1564,8 +1660,8 @@
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12">
         <v>-357000000</v>
@@ -1668,8 +1764,8 @@
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B13">
         <v>-53000000</v>
@@ -1772,8 +1868,8 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B14">
         <v>-304000000</v>
@@ -1873,8 +1969,8 @@
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B15">
         <v>-304000000</v>
@@ -1977,8 +2073,8 @@
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B16">
         <v>-0.23</v>
@@ -1993,7 +2089,7 @@
         <v>0.39</v>
       </c>
       <c r="F16">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G16">
         <v>0.3</v>
@@ -2078,8 +2174,8 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B17">
         <v>-0.23</v>
@@ -2179,11 +2275,11 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>1303000000</v>
+        <v>1296000000</v>
       </c>
       <c r="C18">
         <v>1305000000</v>
@@ -2195,7 +2291,7 @@
         <v>1304000000</v>
       </c>
       <c r="F18">
-        <v>1309000000</v>
+        <v>1312000000</v>
       </c>
       <c r="G18">
         <v>1314000000</v>
@@ -2283,11 +2379,11 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>1322000000</v>
+        <v>1296000000</v>
       </c>
       <c r="C19">
         <v>1323000000</v>
@@ -2299,7 +2395,7 @@
         <v>1325000000</v>
       </c>
       <c r="F19">
-        <v>1330000000</v>
+        <v>1335000000</v>
       </c>
       <c r="G19">
         <v>1338000000</v>
@@ -2387,23 +2483,23 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>0.3294</v>
+        <v>0.3068</v>
       </c>
       <c r="C20">
-        <v>0.3447</v>
+        <v>0.3231</v>
       </c>
       <c r="D20">
-        <v>0.3237</v>
+        <v>0.3227</v>
       </c>
       <c r="E20">
-        <v>0.3367</v>
+        <v>0.3199</v>
       </c>
       <c r="F20">
-        <v>0.3289</v>
+        <v>0.3154</v>
       </c>
       <c r="G20">
         <v>0.3454</v>
@@ -2491,23 +2587,23 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>-0.0431</v>
+        <v>-0.0439</v>
       </c>
       <c r="C21">
-        <v>0.067</v>
+        <v>0.0682</v>
       </c>
       <c r="D21">
-        <v>0.0308</v>
+        <v>0.0311</v>
       </c>
       <c r="E21">
-        <v>0.0644</v>
+        <v>0.065</v>
       </c>
       <c r="F21">
-        <v>0.0476</v>
+        <v>0.0478</v>
       </c>
       <c r="G21">
         <v>0.0409</v>
@@ -2595,23 +2691,23 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B22">
-        <v>-0.0454</v>
+        <v>-0.0462</v>
       </c>
       <c r="C22">
-        <v>0.0668</v>
+        <v>0.0679</v>
       </c>
       <c r="D22">
-        <v>0.0411</v>
+        <v>0.0415</v>
       </c>
       <c r="E22">
-        <v>0.0708</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="F22">
-        <v>0.3655</v>
+        <v>0.3671</v>
       </c>
       <c r="G22">
         <v>0.0589</v>
@@ -2699,23 +2795,23 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>-0.0386</v>
+        <v>-0.0394</v>
       </c>
       <c r="C23">
-        <v>0.0588</v>
+        <v>0.0598</v>
       </c>
       <c r="D23">
-        <v>0.0372</v>
+        <v>0.0376</v>
       </c>
       <c r="E23">
-        <v>0.0737</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="F23">
-        <v>0.3472</v>
+        <v>0.3487</v>
       </c>
       <c r="G23">
         <v>0.0568</v>
@@ -2803,23 +2899,23 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B24">
-        <v>1184000000</v>
+        <v>1209000000</v>
       </c>
       <c r="C24">
-        <v>1086000000</v>
+        <v>1091000000</v>
       </c>
       <c r="D24">
-        <v>828000000</v>
+        <v>1003000000</v>
       </c>
       <c r="E24">
-        <v>1069000000</v>
+        <v>1122000000</v>
       </c>
       <c r="F24">
-        <v>991000000</v>
+        <v>1168000000</v>
       </c>
       <c r="G24">
         <v>925000000</v>
@@ -2907,8 +3003,8 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B25">
         <v>-339000000</v>
@@ -3008,8 +3104,8 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B26">
         <v>-304000000</v>
@@ -3109,8 +3205,8 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="R27">
         <v>15000000</v>
@@ -3147,8 +3243,8 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B28">
         <v>-304000000</v>
@@ -3248,8 +3344,8 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B29">
         <v>-0.2319</v>
@@ -3349,8 +3445,8 @@
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B30">
         <v>-0.2278</v>
@@ -3450,8 +3546,8 @@
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="R31">
         <v>0.0107</v>
@@ -3488,8 +3584,8 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="R32">
         <v>0.0107</v>
@@ -3526,8 +3622,8 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B33">
         <v>-0.2319</v>
@@ -3627,8 +3723,8 @@
       </c>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B34">
         <v>-0.2278</v>
@@ -3728,8 +3824,8 @@
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B35">
         <v>1296000000</v>
@@ -3829,23 +3925,23 @@
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>0.1504</v>
+        <v>0.1566</v>
       </c>
       <c r="C36">
-        <v>0.1562</v>
+        <v>0.1596</v>
       </c>
       <c r="D36">
-        <v>0.1233</v>
+        <v>0.1507</v>
       </c>
       <c r="E36">
-        <v>0.1536</v>
+        <v>0.1627</v>
       </c>
       <c r="F36">
-        <v>0.1348</v>
+        <v>0.1595</v>
       </c>
       <c r="G36">
         <v>0.1341</v>
@@ -3933,23 +4029,23 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>0.3857</v>
+        <v>0.3933</v>
       </c>
       <c r="C37">
-        <v>0.1804</v>
+        <v>0.1834</v>
       </c>
       <c r="D37">
-        <v>0.0565</v>
+        <v>0.0569</v>
       </c>
       <c r="E37">
-        <v>-0.0109</v>
+        <v>-0.011</v>
       </c>
       <c r="F37">
-        <v>0.402</v>
+        <v>0.4037</v>
       </c>
       <c r="G37">
         <v>0.1638</v>
